--- a/Synths/Met_synth.xlsx
+++ b/Synths/Met_synth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirg\Chi-T\Chi-T\Synths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aguppy/Chi-T/Chi-T/Synths/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A36516-AD68-412A-8AEF-1256BEBF2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84850826-EFC8-2D4E-AB7C-2192EAF2CAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{F1D0523A-E1D4-4E71-9C74-A17B87412333}"/>
+    <workbookView xWindow="4780" yWindow="2040" windowWidth="17280" windowHeight="8960" xr2:uid="{F1D0523A-E1D4-4E71-9C74-A17B87412333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Met_08</t>
-  </si>
-  <si>
-    <t>A0RXE5</t>
-  </si>
-  <si>
-    <t>At0055</t>
-  </si>
-  <si>
-    <t>DP000238</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <t>Met_01</t>
+  </si>
+  <si>
+    <t>WP_011522832.1</t>
+  </si>
+  <si>
+    <t>Met_02</t>
+  </si>
+  <si>
+    <t>WP_011941896.1</t>
+  </si>
+  <si>
+    <t>Met_03</t>
+  </si>
+  <si>
+    <t>WP_010880800.1</t>
+  </si>
+  <si>
+    <t>Met_04</t>
+  </si>
+  <si>
+    <t>Q5L7I8.1</t>
+  </si>
+  <si>
+    <t>C000175</t>
+  </si>
+  <si>
+    <t>CP000360</t>
+  </si>
+  <si>
+    <t>C000488</t>
+  </si>
+  <si>
+    <t>CP000697</t>
+  </si>
+  <si>
+    <t>C000005</t>
+  </si>
+  <si>
+    <t>AE000657</t>
+  </si>
+  <si>
+    <t>C002823</t>
+  </si>
+  <si>
+    <t>CR626927</t>
   </si>
 </sst>
 </file>
@@ -89,13 +125,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -413,26 +448,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C1FED-5AC3-4836-AB40-55D9B2594A06}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Synths/Met_synth.xlsx
+++ b/Synths/Met_synth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirg\Chi-T\Chi-T\Synths\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amir\Chi-T\Chi-T\Synths\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08A36516-AD68-412A-8AEF-1256BEBF2E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF74E0EF-CA81-4E13-9278-80A7A470109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4788" yWindow="2040" windowWidth="17280" windowHeight="8964" xr2:uid="{F1D0523A-E1D4-4E71-9C74-A17B87412333}"/>
+    <workbookView xWindow="-28425" yWindow="1755" windowWidth="21600" windowHeight="11385" xr2:uid="{F1D0523A-E1D4-4E71-9C74-A17B87412333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Met_08</t>
   </si>
@@ -46,6 +46,114 @@
   </si>
   <si>
     <t>DP000238</t>
+  </si>
+  <si>
+    <t>Met_01</t>
+  </si>
+  <si>
+    <t>WP_011522832.1</t>
+  </si>
+  <si>
+    <t>C000175</t>
+  </si>
+  <si>
+    <t>CP000360</t>
+  </si>
+  <si>
+    <t>Met_02</t>
+  </si>
+  <si>
+    <t>WP_011941896.1</t>
+  </si>
+  <si>
+    <t>C000488</t>
+  </si>
+  <si>
+    <t>CP000697</t>
+  </si>
+  <si>
+    <t>Met_03</t>
+  </si>
+  <si>
+    <t>WP_010880800.1</t>
+  </si>
+  <si>
+    <t>C000005</t>
+  </si>
+  <si>
+    <t>AE000657</t>
+  </si>
+  <si>
+    <t>Met_04</t>
+  </si>
+  <si>
+    <t>Q5L7I8.1</t>
+  </si>
+  <si>
+    <t>C002823</t>
+  </si>
+  <si>
+    <t>CR626927</t>
+  </si>
+  <si>
+    <t>Met_05</t>
+  </si>
+  <si>
+    <t>A1WBH1.1</t>
+  </si>
+  <si>
+    <t>C000375</t>
+  </si>
+  <si>
+    <t>CP000539</t>
+  </si>
+  <si>
+    <t>Met_06</t>
+  </si>
+  <si>
+    <t>Q5L5M3.1</t>
+  </si>
+  <si>
+    <t>C004944</t>
+  </si>
+  <si>
+    <t>CR848038</t>
+  </si>
+  <si>
+    <t>Met_07</t>
+  </si>
+  <si>
+    <t>A5FS74.1</t>
+  </si>
+  <si>
+    <t>C007625</t>
+  </si>
+  <si>
+    <t>CP000688</t>
+  </si>
+  <si>
+    <t>Met_09</t>
+  </si>
+  <si>
+    <t>WP_012406922.1</t>
+  </si>
+  <si>
+    <t>C08006893</t>
+  </si>
+  <si>
+    <t>CP001037</t>
+  </si>
+  <si>
+    <t>Met_10</t>
+  </si>
+  <si>
+    <t>WP_011372695.1</t>
+  </si>
+  <si>
+    <t>C025436</t>
+  </si>
+  <si>
+    <t>CP000153</t>
   </si>
 </sst>
 </file>
@@ -89,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -97,6 +205,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -413,26 +524,152 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586C1FED-5AC3-4836-AB40-55D9B2594A06}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
